--- a/映虚284大促页面.xlsx
+++ b/映虚284大促页面.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="620" windowWidth="28800" windowHeight="16700" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="秒杀" sheetId="1" r:id="rId1"/>
+    <sheet name="秒杀" sheetId="6" r:id="rId1"/>
     <sheet name="列表爆品" sheetId="2" r:id="rId2"/>
     <sheet name="列表团购" sheetId="3" r:id="rId3"/>
     <sheet name="店铺美食" sheetId="4" r:id="rId4"/>
     <sheet name="店铺美妆" sheetId="5" r:id="rId5"/>
+    <sheet name="店铺服饰" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,48 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
-  <si>
-    <t>商品ID</t>
-    <rPh sb="0" eb="1">
-      <t>shang'p</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <rPh sb="0" eb="1">
-      <t>shang'p</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming'cheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原价</t>
-    <rPh sb="0" eb="1">
-      <t>yuan'jai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现价</t>
-    <rPh sb="0" eb="1">
-      <t>xian'jia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片地址</t>
-    <rPh sb="0" eb="1">
-      <t>tu'p</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="217">
   <si>
     <t>秒杀开始时间</t>
     <rPh sb="0" eb="1">
@@ -84,96 +44,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>秒杀期限</t>
-    <rPh sb="0" eb="1">
-      <t>miao'sha</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi'xian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,12:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩国gilim蜂蜜扁桃仁黄油芝士巴旦木仁35g＊5包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://img-prod.kkkd.com/FgvCW-kwzX_31qOpD9JWG1Iiwm1e</t>
-  </si>
-  <si>
-    <t>http://img-prod.kkkd.com/FgvCW-kwzX_31qOpD9JWG1Iiwm1e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,12:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表名</t>
-    <rPh sb="0" eb="1">
-      <t>lie'biao'ming</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <rPh sb="0" eb="1">
-      <t>biao'ti</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原价</t>
-    <rPh sb="0" eb="1">
-      <t>yuan'jia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>马来西亚Aji尼西亚惊奇脆片 4种口味可选</t>
-  </si>
-  <si>
-    <t>tuan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddddd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddddd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>*列表名称</t>
+  </si>
+  <si>
+    <t>*商品ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>*商品标题</t>
@@ -474,12 +353,648 @@
     <t>meizhuang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>韩国gilim蜂蜜扁桃仁黄油芝士巴旦木仁35g＊5包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FgvCW-kwzX_31qOpD9JWG1Iiwm1e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国乐天芒果味饮料180ml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马来西亚Aji尼西亚惊奇脆片 4种口味可选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国西北樱桃果径约26.5mm</t>
+  </si>
+  <si>
+    <t>印尼丽芝士纳宝帝奶酪威化饼干200克</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰国大哥花生豆（泰文版）230g 多种口味</t>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/51527.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/50655.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/36758c.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/50647.jpg?imageView2/1/w/750/h/750/interlace/1/q/60/ignore-error/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/43440.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/50654.jpg?imageView2/1/w/750/h/750/interlace/1/q/60/ignore-error/1</t>
+  </si>
+  <si>
+    <t>24,14:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,16:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀时限</t>
+    <rPh sb="0" eb="1">
+      <t>miao'sha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,10:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,12:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,20:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baopin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千世界---最好的礼物！！日本阿古屋彩凛花珠18K耳钉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/bao081701.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级定制！！松本惠奈走秀款~！超有范儿 松本包 #7651</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/bao081707.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏罗的念想 FROM JAPAN又见落英内衣/文胸套装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/bao081703.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏罗的念想 特 FROM EUR 翡冷翠的一夜 内衣/文胸套装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/bao081704.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏罗的念想 特 FROM JAPAN 借着夜色，不梳妆 内衣/文胸套装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/bao081705.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏罗的念想 特 FROM JAPAN 猫头鹰 家居服套装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/bao081706.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏罗的念想 特 FROM AMERICA 你离性感，只有它的距离 单件内衣/文胸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/bao081702.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值！自留几双换着穿！男女款欧美风彩色飞线运动鞋休闲鞋 特x02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/bao081708.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOY自制自留!大写的美 呐喊推荐羊绒防水台减震穆勒粗跟凉鞋x01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/bao081709.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包邮 有机葡萄 夏黑 巨玫瑰  5斤/盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xtwf5.com1.z0.glb.clouddn.com/%E8%91%A1%E8%90%84.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包邮 阳澄湖秘制香辣小龙虾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FjyP2TYB3XcQomW3PQUSypGnaU_Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳澄不等大闸蟹 蟹卡 10月上市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FpGjEQWHIV6v8oxYorV2kF7rmtN_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pintuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国gilim蜂蜜扁桃仁黄油芝士巴旦木仁35g＊5包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FgvCW-kwzX_31qOpD9JWG1Iiwm1e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fushi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优恬 法式|深V透视裸色蕾丝水溶刺绣贴花吊带睡裙+T裤套装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Full3nzaeV2yoDcbE31KJNCcrPV2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优恬 法式精致内衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撩男，听说这样的我，让你情不自禁！</t>
+    <rPh sb="0" eb="1">
+      <t>quan'chang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe'kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>man'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优恬 法式|法国性感文胸套装 配吊袜带 3件套/4件套任选 新娘白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FqV0600-IDBCFV315klPeU38gxla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优恬 法式|高端奢品1/2半杯薄棉杯文胸套装 活动肩带 防滑条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FpvM0-KNMsCEfK-qWhADdg5LXRfa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优恬 法式|优雅轻奢！法国精致透明蕾丝双层超薄杯文胸套装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FlrGNM5ABWIfp7d5q7tEJSO_fRPA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优恬 法式|华丽蕾丝纯棉杯里1/2半杯文胸内衣套装 新娘白/酒红/黑色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fq8O92JhldUhfHw1zXWSAPbeMUMq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优恬 法式|法国精致透明蕾丝+缎面女士低腰三角内裤 纯白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FjCjatMDtScYR8hXK4tUzeXbtVlM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Julychagall新款植鞣牛皮纯手工头层牛皮水桶包手拎包双肩包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FodTRkP_jd1mB8Sqnj0LgzCFO4u6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>July Chagall 七月夏卡尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩擦~摩擦~这样的植鞣牛皮包包长得快！</t>
+    <rPh sb="0" eb="1">
+      <t>quan'chang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe'kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>man'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Julychagall手工原创设计师定制植鞣牛皮托特包真皮单肩包头层牛皮女包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fjh9yx5A9KlfugQRrS-yN8XG-5ov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Julychagall纯手工男士植鞣牛皮真皮邮差包手拎包单肩包斜背公文电脑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FoqYNfZBhzNZfy0ZgAtCsRsGY-fc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简璞 重磅真丝桑蚕丝 条纹口袋长袖衬衣宽松显瘦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FugQPOA04eD6rDvGQsl8_0-YMBEd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简璞 原红色高跟鞋1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>质感！质感！好的衣服会上瘾！</t>
+    <rPh sb="0" eb="1">
+      <t>quan'chang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe'kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>man'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简璞 精致好看！刺绣 绣花短外套棒球服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://7xo7x3.com2.z0.glb.qiniucdn.com/FmW8nBMmEeOHgPvZt-qgNEtPMNb5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简璞 精致！8种工艺水溶绣花勾花刺绣蕾丝高档连衣裙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fo_kiZ4_go0RHlDRNaqCq7drz_Zs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简璞 16秋冬女 红色枫叶印花印花套头圆领长袖 宽松卫衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FlRRWw4p6EymsqIbgTInyFT3vnOY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简璞 新款韩版宽松中长袖蝙蝠宽松条纹衬衣 纯棉米奇刺绣上衣女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FqZlYJnC5x6sVMtIkhGZTWw2m-tn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简璞 巴黎轻奢 蓝色刺绣仙人掌短款夹克短外套 棒球服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Frwty3eznRmwWCCqUE3VQHs_jDlA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【PATOO怕痛】原创防水纹身贴 我是你的礼物 I'm Your Gift 创意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FuMGEyO3txC1Yqo4lMn2KYjQ-D7R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATOO 怕痛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【PATOO怕痛】原创防水纹身贴闪电 Lightning 创意礼品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fq2IbWd_Q3y0ZRMkKZbE5TmOYa4-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【PATOO怕痛】原创防水纹身贴拉链 Zipper 黑白 创意礼品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FurqfNjpEDET3ms1aBGaxGDlqSHr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【PATOO怕痛】原创纹身贴 自转公转 Rotation &amp; Revolution 黑白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FpIuJZDkRqvuaT8PcM7pZzQelhpR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【PATOO怕痛】原创防水纹身贴 飞到那遥远地方看一看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FtNl0052f4tyUdq2Dsv036Eoi4uV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾麻绣|素香柔树幽人趣做旧休闲便鞋牛皮全皮平底鞋牛角底浅口单鞋手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fp5nq622jHzogaqaHTOi-wnsUIuN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾麻绣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾麻绣|雨丝过云掠芳尘 拾麻绣古典真丝茶人服中式盘扣改良旗袍裙长衫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fln0ZSO4MmsRmQJ4z_SVThKMPon9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾麻绣|银烛秋光冷画屏 复古中式蓝色真丝双层百褶裙半裙半身长裙秋新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fo6I6eX7cH4AkrfbUT3a7eg8Ilf4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾麻绣|轻翅萦枝舞蝶来 拾麻绣花真丝中国风无袖立领盘扣改良旗袍短上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Ft2ApHdNTlHK9qlBNSmwUuMDM-Rk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾麻绣|禅意茶服古琴服中式改良真丝棉长袖旗袍长衫秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fm5SKHzGdKi3Hr-AZMX6GzgEyt3A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾麻绣|风定池莲自在香拾麻绣改良中国风中式文艺女装旗袍真丝复古长衫裙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fv5hmYpBFpyO-5LOaJIv3WIcpCS9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千世界---人手N副！！日本阿古屋AKOYA最高级别5-5.5 18K金耳钉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FkyKRc4nH6QlN_XjRbRmXPSsOVH-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千世界珠宝 GIA彩色宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千世界---极致蔷薇粉 7-7.5mm高性价比日本阿古屋18K金耳环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FooCMPxg52Dq4jS5fp58LUmWHo77</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千世界---春夏最佳 日本akoya极光花珠 18K玫瑰金锁骨链</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FpdM32_oCaIsOYMGAvBcWner1s0e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOY2016早春款！四色 好精致扭结金属蝴蝶结 尖头羊绒高跟鞋特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FpG7ls0KgZRTx6CeTFGakUbZ6k7x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOY家 原 JOY原单美鞋 店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOY美风高级鞋履！优雅高挑独特斜口设计撞色尖头细跟鞋高跟鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fl4E6F1i9E71kupoyvzB-kGfn0cR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOY 好美好迷人 最优雅曲线！欧美风简约中空尖头中跟鞋 四色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FvjSiPOe_Idgxgk6Ir7fj8w9_Lmk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力荐！陈妍希范冰冰同款 白色牛皮小白鞋真皮厚底乐福鞋松糕鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FqqGbDVQhLVAVS_WOyBdACwAkqjO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试穿得到大家一致肯定 性价比很牛的网面松糕厚底小白鞋休闲鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FkvskU2rtLZARaoARZMp73wv1Qop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOY 浓郁美风 时尚达人好穿又时尚麻绳平底鞋渔夫鞋吸烟鞋特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FvSyznVQSLXLFu_gM0lH7IKseixV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimple Hsu早秋慵懒V领羊驼毛针织开衫亲肤宽松毛衣女W10071预定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FrD-ElvYyo3VdJkIW6gl5bkqjnmA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D家 dimplehsu 女装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimple Hsu 早秋高级单品 Normcore 真丝 白衬衣 W09887</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FlOFSWNE-lUcJ3Z73-2JAoHJQC5d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimple Hsu焦糖色系 显高显瘦时髦复古百褶裙 W11044 现货+预定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FvaVayts9obCcGG5cxL5mpUSGH6P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimple Hsu 超细长绒棉基本款蓝白条纹衬衫 高级质感W10922</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/Fv-RqNn5RIcldG93GXNQq9db79Jv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimple Hsu 自然系文艺范要高品质长开衫(日本三醋酸)W09988</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FgqjY5zKBhTgUSLzFu2Ei3kJofyi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级四季款 蕾丝和百褶的结合美 精致半裙 W08187 D家现货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img-prod.kkkd.com/FvTYf-UZ6mqbYsRswqjufyyc3bc1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -586,16 +1101,55 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -618,6 +1172,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -627,7 +1196,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -710,6 +1279,65 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -989,336 +1617,953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="18" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="31">
+        <v>36758</v>
+      </c>
+      <c r="C2" s="31">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+      <c r="D2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="31">
+        <v>26</v>
+      </c>
+      <c r="F2" s="31">
+        <v>9.9</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="31">
+        <v>50647</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="31">
+        <v>2.9</v>
+      </c>
+      <c r="F3" s="31">
+        <v>9.9</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="31">
+        <v>43440</v>
+      </c>
+      <c r="C4" s="31">
+        <v>2</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="31">
+        <v>6.5</v>
+      </c>
+      <c r="F4" s="31">
+        <v>9.9</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="31">
+        <v>51527</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="31">
+        <v>29.9</v>
+      </c>
+      <c r="F5" s="31">
+        <v>9.9</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="31">
+        <v>50655</v>
+      </c>
+      <c r="C6" s="31">
+        <v>2</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="31">
+        <v>8.9</v>
+      </c>
+      <c r="F6" s="31">
+        <v>9.9</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C7" s="31">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="F7" s="31">
+        <v>9.9</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="31">
+        <v>51527</v>
+      </c>
+      <c r="C8" s="31">
+        <v>2</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="31">
+        <v>49</v>
+      </c>
+      <c r="F8" s="31">
+        <v>29.9</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="31">
+        <v>50655</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="31">
+        <v>14</v>
+      </c>
+      <c r="F9" s="31">
+        <v>8.9</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="31">
         <v>36758</v>
       </c>
-      <c r="C2">
+      <c r="C10" s="31">
+        <v>2</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="31">
+        <v>45</v>
+      </c>
+      <c r="F10" s="31">
+        <v>26</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="31">
+        <v>50647</v>
+      </c>
+      <c r="C11" s="31">
+        <v>2</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="31">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <v>9.9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>50647</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>9.9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>36758</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>9.9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>36758</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>9.9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>50647</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>9.9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>36758</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>9.9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F11" s="31">
+        <v>2.9</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="31">
+        <v>43440</v>
+      </c>
+      <c r="C12" s="31">
+        <v>2</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="F12" s="31">
+        <v>6.5</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C13" s="31">
+        <v>2</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="31">
+        <v>16</v>
+      </c>
+      <c r="F13" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C14" s="31">
+        <v>2</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="31">
+        <v>16</v>
+      </c>
+      <c r="F14" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C15" s="31">
+        <v>2</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="31">
+        <v>16</v>
+      </c>
+      <c r="F15" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C16" s="31">
+        <v>2</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="31">
+        <v>16</v>
+      </c>
+      <c r="F16" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C17" s="31">
+        <v>2</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="31">
+        <v>16</v>
+      </c>
+      <c r="F17" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C18" s="31">
+        <v>2</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="31">
+        <v>16</v>
+      </c>
+      <c r="F18" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C19" s="31">
+        <v>2</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="31">
+        <v>16</v>
+      </c>
+      <c r="F19" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C20" s="31">
+        <v>2</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="31">
+        <v>16</v>
+      </c>
+      <c r="F20" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C21" s="31">
+        <v>2</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="31">
+        <v>16</v>
+      </c>
+      <c r="F21" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C22" s="31">
+        <v>2</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="31">
+        <v>16</v>
+      </c>
+      <c r="F22" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C23" s="31">
+        <v>2</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="31">
+        <v>16</v>
+      </c>
+      <c r="F23" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C24" s="31">
+        <v>2</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="31">
+        <v>16</v>
+      </c>
+      <c r="F24" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C25" s="31">
+        <v>2</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="31">
+        <v>16</v>
+      </c>
+      <c r="F25" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="31">
+        <v>50654</v>
+      </c>
+      <c r="C26" s="31">
+        <v>2</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="31">
+        <v>16</v>
+      </c>
+      <c r="F26" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="G13" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G12" r:id="rId6"/>
+    <hyperlink ref="G2" r:id="rId7"/>
+    <hyperlink ref="G3" r:id="rId8"/>
+    <hyperlink ref="G4" r:id="rId9"/>
+    <hyperlink ref="G5:G6" r:id="rId10" display="http://img-prod.kkkd.com/FgvCW-kwzX_31qOpD9JWG1Iiwm1e"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="G14" r:id="rId12"/>
+    <hyperlink ref="G15" r:id="rId13"/>
+    <hyperlink ref="G16" r:id="rId14"/>
+    <hyperlink ref="G17" r:id="rId15"/>
+    <hyperlink ref="G18" r:id="rId16"/>
+    <hyperlink ref="G19" r:id="rId17"/>
+    <hyperlink ref="G20" r:id="rId18"/>
+    <hyperlink ref="G21" r:id="rId19"/>
+    <hyperlink ref="G22" r:id="rId20"/>
+    <hyperlink ref="G23" r:id="rId21"/>
+    <hyperlink ref="G24" r:id="rId22"/>
+    <hyperlink ref="G25" r:id="rId23"/>
+    <hyperlink ref="G26" r:id="rId24"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="A1:XFD1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="39" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="39"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:6" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" s="36" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>43440</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>9.9</v>
-      </c>
-      <c r="E2">
-        <v>6.5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>43440</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>9.9</v>
-      </c>
-      <c r="E3">
-        <v>6.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="A2" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="39">
+        <v>75761</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="40">
+        <v>390</v>
+      </c>
+      <c r="E2" s="40">
+        <v>330</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="39">
+        <v>94530</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="40">
+        <v>59</v>
+      </c>
+      <c r="E3" s="40">
+        <v>51.92</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>43440</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>9.9</v>
-      </c>
-      <c r="E4">
-        <v>6.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>43440</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>9.9</v>
-      </c>
-      <c r="E5">
-        <v>6.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
+      <c r="A4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="39">
+        <v>60967</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="40">
+        <v>139</v>
+      </c>
+      <c r="E4" s="40">
+        <v>95</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="43">
+        <v>60968</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="44">
+        <v>99</v>
+      </c>
+      <c r="E5" s="44">
+        <v>79</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>43440</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>9.9</v>
-      </c>
-      <c r="E6">
-        <v>6.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
+      <c r="A6" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="5">
+        <v>61369</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="45">
+        <v>149</v>
+      </c>
+      <c r="E6" s="45">
+        <v>119</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>43440</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>9.9</v>
-      </c>
-      <c r="E7">
-        <v>6.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
+      <c r="A7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="5">
+        <v>60969</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="45">
+        <v>250</v>
+      </c>
+      <c r="E7" s="45">
+        <v>180</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="5">
+        <v>60970</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="45">
+        <v>120</v>
+      </c>
+      <c r="E8" s="45">
+        <v>99</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="45">
+        <v>88</v>
+      </c>
+      <c r="E9" s="45">
+        <v>70</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="45">
+        <v>268</v>
+      </c>
+      <c r="E10" s="45">
+        <v>230</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="39">
+        <v>57788</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="39">
+        <v>120</v>
+      </c>
+      <c r="E12" s="39">
+        <v>90</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="22">
+        <v>54884</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="22">
+        <v>150</v>
+      </c>
+      <c r="E13" s="22">
+        <v>139</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="22">
+        <v>97827</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="22">
+        <v>199</v>
+      </c>
+      <c r="E14" s="22">
+        <v>179</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="http://7xtwf5.com1.z0.glb.clouddn.com/13.jpg"/>
+    <hyperlink ref="F12" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3"/>
+    <hyperlink ref="F14" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1328,153 +2573,104 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="22"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" s="32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>43440</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>9.9</v>
-      </c>
-      <c r="E2">
-        <v>6.5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>43440</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="31">
+        <v>36758</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="31">
+        <v>26</v>
+      </c>
+      <c r="E2" s="31">
+        <v>22</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="31">
+        <v>51527</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="31">
+        <v>29.9</v>
+      </c>
+      <c r="E3" s="31">
         <v>21</v>
       </c>
-      <c r="D3">
-        <v>9.9</v>
-      </c>
-      <c r="E3">
-        <v>6.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>43440</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>9.9</v>
-      </c>
-      <c r="E4">
-        <v>6.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>43440</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>9.9</v>
-      </c>
-      <c r="E5">
-        <v>6.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>43440</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>9.9</v>
-      </c>
-      <c r="E6">
-        <v>6.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>43440</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>9.9</v>
-      </c>
-      <c r="E7">
-        <v>6.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="F3" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1483,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1504,42 +2700,42 @@
   <sheetData>
     <row r="1" spans="1:10" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1547,7 +2743,7 @@
         <v>76313</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H2" s="6">
         <v>45</v>
@@ -1556,15 +2752,15 @@
         <v>55</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1572,7 +2768,7 @@
         <v>76316</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H3" s="6">
         <v>3.6</v>
@@ -1581,15 +2777,15 @@
         <v>5</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1597,7 +2793,7 @@
         <v>76324</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6">
         <v>35</v>
@@ -1606,15 +2802,15 @@
         <v>55</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1622,7 +2818,7 @@
         <v>76368</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H5" s="6">
         <v>65</v>
@@ -1631,15 +2827,15 @@
         <v>75</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1647,7 +2843,7 @@
         <v>76375</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H6" s="6">
         <v>22</v>
@@ -1656,15 +2852,15 @@
         <v>28</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1672,7 +2868,7 @@
         <v>76379</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H7" s="6">
         <v>26</v>
@@ -1681,7 +2877,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1695,10 +2891,10 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1706,7 +2902,7 @@
         <v>92733</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H9" s="6">
         <v>14.8</v>
@@ -1715,15 +2911,15 @@
         <v>16.8</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1731,7 +2927,7 @@
         <v>92728</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H10" s="6">
         <v>12.8</v>
@@ -1740,15 +2936,15 @@
         <v>13.8</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1756,7 +2952,7 @@
         <v>92726</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H11" s="6">
         <v>10.5</v>
@@ -1765,15 +2961,15 @@
         <v>11</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1781,7 +2977,7 @@
         <v>93137</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H12" s="6">
         <v>8</v>
@@ -1790,7 +2986,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -1804,10 +3000,10 @@
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1815,7 +3011,7 @@
         <v>92662</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6">
         <v>25</v>
@@ -1824,15 +3020,15 @@
         <v>39</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1840,7 +3036,7 @@
         <v>92670</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H15" s="6">
         <v>33</v>
@@ -1849,15 +3045,15 @@
         <v>52</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1865,7 +3061,7 @@
         <v>92669</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H16" s="6">
         <v>45</v>
@@ -1874,15 +3070,15 @@
         <v>73</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -1890,7 +3086,7 @@
         <v>92666</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H17" s="6">
         <v>29</v>
@@ -1899,15 +3095,15 @@
         <v>44.5</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1915,7 +3111,7 @@
         <v>92665</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H18" s="6">
         <v>120</v>
@@ -1924,15 +3120,15 @@
         <v>165</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -1940,7 +3136,7 @@
         <v>92668</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H19" s="6">
         <v>33</v>
@@ -1949,7 +3145,7 @@
         <v>45</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -2528,7 +3724,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2548,53 +3744,53 @@
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F2" s="22">
         <v>94239</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H2" s="24">
         <v>24.9</v>
@@ -2603,26 +3799,26 @@
         <v>25.99</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F3" s="22">
         <v>94240</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H3" s="24">
         <v>26.9</v>
@@ -2631,26 +3827,26 @@
         <v>29.9</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F4" s="22">
         <v>94241</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H4" s="24">
         <v>30</v>
@@ -2659,26 +3855,26 @@
         <v>31.99</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F5" s="22">
         <v>94242</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H5" s="24">
         <v>29</v>
@@ -2687,26 +3883,26 @@
         <v>33.99</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F6" s="22">
         <v>94115</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="H6" s="24">
         <v>29</v>
@@ -2715,7 +3911,7 @@
         <v>31.9</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.15">
@@ -2731,21 +3927,21 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F8" s="22">
         <v>94147</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H8" s="24">
         <v>29</v>
@@ -2754,26 +3950,26 @@
         <v>31.9</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F9" s="22">
         <v>94243</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="H9" s="24">
         <v>29</v>
@@ -2782,26 +3978,26 @@
         <v>31.9</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F10" s="22">
         <v>94200</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H10" s="24">
         <v>29</v>
@@ -2810,26 +4006,26 @@
         <v>31.9</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F11" s="22">
         <v>94244</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="H11" s="24">
         <v>29</v>
@@ -2838,26 +4034,26 @@
         <v>31.9</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F12" s="22">
         <v>94245</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="H12" s="24">
         <v>29</v>
@@ -2866,7 +4062,7 @@
         <v>32.9</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2894,4 +4090,1107 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.6640625" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="10.5" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="51">
+        <v>69243</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="52">
+        <v>98</v>
+      </c>
+      <c r="I2" s="52">
+        <v>109</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="51">
+        <v>68807</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="52">
+        <v>151</v>
+      </c>
+      <c r="I3" s="52">
+        <v>168</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="51">
+        <v>67762</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="52">
+        <v>115</v>
+      </c>
+      <c r="I4" s="52">
+        <v>127</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="51">
+        <v>69119</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="52">
+        <v>90</v>
+      </c>
+      <c r="I5" s="52">
+        <v>99</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="51">
+        <v>94542</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="52">
+        <v>104</v>
+      </c>
+      <c r="I6" s="52">
+        <v>115</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="51">
+        <v>68780</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="52">
+        <v>36</v>
+      </c>
+      <c r="I7" s="52">
+        <v>39</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="51"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="51">
+        <v>94714</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="52">
+        <v>485</v>
+      </c>
+      <c r="I9" s="52">
+        <v>539</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="51">
+        <v>94668</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="52">
+        <v>432</v>
+      </c>
+      <c r="I10" s="52">
+        <v>480</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="51">
+        <v>94683</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="52">
+        <v>1169</v>
+      </c>
+      <c r="I11" s="52">
+        <v>1299</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="12">
+        <v>82609</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="52">
+        <v>388</v>
+      </c>
+      <c r="I13" s="52">
+        <v>399</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="12">
+        <v>66326</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="52">
+        <v>360</v>
+      </c>
+      <c r="I14" s="52">
+        <v>398</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="12">
+        <v>49215</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="52">
+        <v>438</v>
+      </c>
+      <c r="I15" s="52">
+        <v>398</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="12">
+        <v>97808</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="52">
+        <v>258</v>
+      </c>
+      <c r="I16" s="52">
+        <v>298</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="12">
+        <v>97811</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="55">
+        <v>118</v>
+      </c>
+      <c r="I17" s="55">
+        <v>128</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="12">
+        <v>97813</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="55">
+        <v>288</v>
+      </c>
+      <c r="I18" s="55">
+        <v>318</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="51">
+        <v>92930</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="52">
+        <v>6.65</v>
+      </c>
+      <c r="I20" s="52">
+        <v>7</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="51">
+        <v>93033</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="52">
+        <v>2.85</v>
+      </c>
+      <c r="I21" s="52">
+        <v>3</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="51">
+        <v>93029</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="52">
+        <v>5.7</v>
+      </c>
+      <c r="I22" s="52">
+        <v>6</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="51">
+        <v>93025</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="52">
+        <v>4.75</v>
+      </c>
+      <c r="I23" s="52">
+        <v>5</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="51">
+        <v>93024</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="52">
+        <v>5.7</v>
+      </c>
+      <c r="I24" s="52">
+        <v>6</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="51">
+        <v>92930</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="52">
+        <v>6.65</v>
+      </c>
+      <c r="I25" s="52">
+        <v>7</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="12">
+        <v>95004</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="55">
+        <v>339</v>
+      </c>
+      <c r="I27" s="55">
+        <v>339</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="12">
+        <v>95033</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="55">
+        <v>1396</v>
+      </c>
+      <c r="I28" s="55">
+        <v>1699</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="51">
+        <v>94977</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="52">
+        <v>686.68</v>
+      </c>
+      <c r="I29" s="52">
+        <v>1039</v>
+      </c>
+      <c r="J29" s="51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="51">
+        <v>94958</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="52">
+        <v>536.67999999999995</v>
+      </c>
+      <c r="I30" s="52">
+        <v>828</v>
+      </c>
+      <c r="J30" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="51">
+        <v>94973</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="52">
+        <v>768.68</v>
+      </c>
+      <c r="I31" s="52">
+        <v>799</v>
+      </c>
+      <c r="J31" s="51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="51">
+        <v>95027</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="52">
+        <v>868.68</v>
+      </c>
+      <c r="I32" s="52">
+        <v>1116.68</v>
+      </c>
+      <c r="J32" s="51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="12">
+        <v>75760</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="55">
+        <v>220</v>
+      </c>
+      <c r="I34" s="55">
+        <v>258</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="12">
+        <v>75764</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" s="55">
+        <v>629.1</v>
+      </c>
+      <c r="I35" s="55">
+        <v>699</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="12">
+        <v>76124</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="55">
+        <v>720</v>
+      </c>
+      <c r="I36" s="55">
+        <v>799</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="12">
+        <v>97891</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="55">
+        <v>255</v>
+      </c>
+      <c r="I38" s="55">
+        <v>268</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="12">
+        <v>97849</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="55">
+        <v>265</v>
+      </c>
+      <c r="I39" s="55">
+        <v>278</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="12">
+        <v>97944</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="55">
+        <v>255</v>
+      </c>
+      <c r="I40" s="55">
+        <v>268</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="12">
+        <v>97905</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="55">
+        <v>255</v>
+      </c>
+      <c r="I41" s="55">
+        <v>268</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="12">
+        <v>98154</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H42" s="55">
+        <v>189</v>
+      </c>
+      <c r="I42" s="55">
+        <v>198</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="12">
+        <v>98134</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" s="55">
+        <v>189</v>
+      </c>
+      <c r="I43" s="55">
+        <v>199</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="12">
+        <v>98215</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" s="55">
+        <v>365</v>
+      </c>
+      <c r="I45" s="55"/>
+      <c r="J45" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="12">
+        <v>98502</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" s="55">
+        <v>365</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="12">
+        <v>98395</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" s="55">
+        <v>299</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="12">
+        <v>98191</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H48" s="55">
+        <v>299</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="12">
+        <v>98230</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="H49" s="55">
+        <v>599</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="12">
+        <v>98399</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" s="55">
+        <v>299</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/映虚284大促页面.xlsx
+++ b/映虚284大促页面.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="秒杀" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="218">
   <si>
     <t>秒杀开始时间</t>
     <rPh sb="0" eb="1">
@@ -986,6 +986,16 @@
     <t>http://img-prod.kkkd.com/FvTYf-UZ6mqbYsRswqjufyyc3bc1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>库存数量</t>
+    <rPh sb="0" eb="1">
+      <t>ku'cun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -994,7 +1004,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1077,7 +1087,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1126,13 +1136,20 @@
       <u/>
       <sz val="11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1285,9 +1302,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1338,6 +1352,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1619,13 +1636,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1647,8 +1664,8 @@
       <c r="G1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>8</v>
+      <c r="H1" s="56" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1673,7 +1690,9 @@
       <c r="G2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -1697,7 +1716,9 @@
       <c r="G3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1721,7 +1742,9 @@
       <c r="G4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1745,7 +1768,9 @@
       <c r="G5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -1769,7 +1794,9 @@
       <c r="G6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1793,7 +1820,9 @@
       <c r="G7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1817,7 +1846,9 @@
       <c r="G8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -1841,7 +1872,9 @@
       <c r="G9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -1865,7 +1898,9 @@
       <c r="G10" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -1889,7 +1924,9 @@
       <c r="G11" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -1913,7 +1950,9 @@
       <c r="G12" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -1937,7 +1976,9 @@
       <c r="G13" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -1961,7 +2002,9 @@
       <c r="G14" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -1985,7 +2028,9 @@
       <c r="G15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -2009,7 +2054,9 @@
       <c r="G16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
@@ -2033,7 +2080,9 @@
       <c r="G17" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -2057,7 +2106,9 @@
       <c r="G18" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
@@ -2081,7 +2132,9 @@
       <c r="G19" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -2105,7 +2158,9 @@
       <c r="G20" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
@@ -2129,7 +2184,9 @@
       <c r="G21" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -2153,7 +2210,9 @@
       <c r="G22" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
@@ -2177,7 +2236,9 @@
       <c r="G23" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -2201,7 +2262,9 @@
       <c r="G24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
@@ -2225,7 +2288,9 @@
       <c r="G25" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
@@ -2249,7 +2314,9 @@
       <c r="G26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="31"/>
+      <c r="H26" s="31">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2293,117 +2360,117 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57" style="39" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.5" style="39"/>
+    <col min="1" max="1" width="10.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:6" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="38">
         <v>75761</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="39">
         <v>390</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="39">
         <v>330</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="38">
         <v>94530</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="39">
         <v>59</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <v>51.92</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="38">
         <v>60967</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>139</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="39">
         <v>95</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <v>60968</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="43">
         <v>99</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>79</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="5">
@@ -2412,18 +2479,18 @@
       <c r="C6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>149</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>119</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="45" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="5">
@@ -2432,18 +2499,18 @@
       <c r="C7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>250</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>180</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="5">
@@ -2452,72 +2519,72 @@
       <c r="C8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>120</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>99</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>88</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>70</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>268</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>230</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>57788</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>120</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="38">
         <v>90</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="22">
@@ -2532,12 +2599,12 @@
       <c r="E13" s="22">
         <v>139</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="46" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="22">
@@ -2552,7 +2619,7 @@
       <c r="E14" s="22">
         <v>179</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="47" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2607,7 +2674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>120</v>
       </c>
@@ -2627,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="48" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>120</v>
       </c>
@@ -2647,7 +2714,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="48" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -2655,7 +2722,7 @@
       <c r="E4" s="31"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -3723,7 +3790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -4151,25 +4218,25 @@
       <c r="A2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="50">
         <v>69243</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="51">
         <v>98</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="51">
         <v>109</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4177,25 +4244,25 @@
       <c r="A3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="50">
         <v>68807</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="51">
         <v>151</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="51">
         <v>168</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="50" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4203,25 +4270,25 @@
       <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <v>67762</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="51">
         <v>115</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="51">
         <v>127</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4229,25 +4296,25 @@
       <c r="A5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="50">
         <v>69119</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <v>90</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="51">
         <v>99</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="50" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4255,25 +4322,25 @@
       <c r="A6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <v>94542</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <v>104</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="51">
         <v>115</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="50" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4281,60 +4348,60 @@
       <c r="A7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <v>68780</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="51">
         <v>36</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="51">
         <v>39</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="50" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="51"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51"/>
+      <c r="C8" s="50"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <v>94714</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="51">
         <v>485</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="51">
         <v>539</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="50" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4342,25 +4409,25 @@
       <c r="A10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <v>94668</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="51">
         <v>432</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="51">
         <v>480</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="50" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4368,45 +4435,45 @@
       <c r="A11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <v>94683</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="51">
         <v>1169</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="51">
         <v>1299</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="50" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="51"/>
+      <c r="C12" s="50"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F13" s="12">
@@ -4415,10 +4482,10 @@
       <c r="G13" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="51">
         <v>388</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="51">
         <v>399</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -4432,7 +4499,7 @@
       <c r="C14" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F14" s="12">
@@ -4441,10 +4508,10 @@
       <c r="G14" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="51">
         <v>360</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="51">
         <v>398</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -4458,7 +4525,7 @@
       <c r="C15" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F15" s="12">
@@ -4467,10 +4534,10 @@
       <c r="G15" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="51">
         <v>438</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="51">
         <v>398</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -4484,7 +4551,7 @@
       <c r="C16" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F16" s="12">
@@ -4493,10 +4560,10 @@
       <c r="G16" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="51">
         <v>258</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="51">
         <v>298</v>
       </c>
       <c r="J16" s="12" t="s">
@@ -4510,7 +4577,7 @@
       <c r="C17" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F17" s="12">
@@ -4519,10 +4586,10 @@
       <c r="G17" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="54">
         <v>118</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="54">
         <v>128</v>
       </c>
       <c r="J17" s="18" t="s">
@@ -4536,7 +4603,7 @@
       <c r="C18" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F18" s="12">
@@ -4545,10 +4612,10 @@
       <c r="G18" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="54">
         <v>288</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="54">
         <v>318</v>
       </c>
       <c r="J18" s="18" t="s">
@@ -4559,22 +4626,22 @@
       <c r="A20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="50">
         <v>92930</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="51">
         <v>6.65</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="51">
         <v>7</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="50" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4582,22 +4649,22 @@
       <c r="A21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="50">
         <v>93033</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="51">
         <v>2.85</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="51">
         <v>3</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="50" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4605,22 +4672,22 @@
       <c r="A22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="50">
         <v>93029</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="51">
         <v>5.7</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="51">
         <v>6</v>
       </c>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="50" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4628,22 +4695,22 @@
       <c r="A23" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="50">
         <v>93025</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="51">
         <v>4.75</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="51">
         <v>5</v>
       </c>
-      <c r="J23" s="51" t="s">
+      <c r="J23" s="50" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4651,22 +4718,22 @@
       <c r="A24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="50">
         <v>93024</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="51">
         <v>5.7</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="51">
         <v>6</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="50" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4674,22 +4741,22 @@
       <c r="A25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="50">
         <v>92930</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="52">
+      <c r="H25" s="51">
         <v>6.65</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="51">
         <v>7</v>
       </c>
-      <c r="J25" s="51" t="s">
+      <c r="J25" s="50" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4706,10 +4773,10 @@
       <c r="G27" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="54">
         <v>339</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="54">
         <v>339</v>
       </c>
       <c r="J27" s="18" t="s">
@@ -4729,10 +4796,10 @@
       <c r="G28" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="54">
         <v>1396</v>
       </c>
-      <c r="I28" s="55">
+      <c r="I28" s="54">
         <v>1699</v>
       </c>
       <c r="J28" s="18" t="s">
@@ -4746,19 +4813,19 @@
       <c r="C29" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="50">
         <v>94977</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="H29" s="52">
+      <c r="H29" s="51">
         <v>686.68</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="51">
         <v>1039</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="J29" s="50" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4769,19 +4836,19 @@
       <c r="C30" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="50">
         <v>94958</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="51">
         <v>536.67999999999995</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="51">
         <v>828</v>
       </c>
-      <c r="J30" s="51" t="s">
+      <c r="J30" s="50" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4792,19 +4859,19 @@
       <c r="C31" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="50">
         <v>94973</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="52">
+      <c r="H31" s="51">
         <v>768.68</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="51">
         <v>799</v>
       </c>
-      <c r="J31" s="51" t="s">
+      <c r="J31" s="50" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4815,19 +4882,19 @@
       <c r="C32" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="50">
         <v>95027</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="52">
+      <c r="H32" s="51">
         <v>868.68</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="51">
         <v>1116.68</v>
       </c>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="50" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4846,10 +4913,10 @@
       <c r="G34" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H34" s="54">
         <v>220</v>
       </c>
-      <c r="I34" s="55">
+      <c r="I34" s="54">
         <v>258</v>
       </c>
       <c r="J34" s="18" t="s">
@@ -4871,10 +4938,10 @@
       <c r="G35" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="55">
+      <c r="H35" s="54">
         <v>629.1</v>
       </c>
-      <c r="I35" s="55">
+      <c r="I35" s="54">
         <v>699</v>
       </c>
       <c r="J35" s="18" t="s">
@@ -4896,10 +4963,10 @@
       <c r="G36" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H36" s="55">
+      <c r="H36" s="54">
         <v>720</v>
       </c>
-      <c r="I36" s="55">
+      <c r="I36" s="54">
         <v>799</v>
       </c>
       <c r="J36" s="18" t="s">
@@ -4921,10 +4988,10 @@
       <c r="G38" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="54">
         <v>255</v>
       </c>
-      <c r="I38" s="55">
+      <c r="I38" s="54">
         <v>268</v>
       </c>
       <c r="J38" s="18" t="s">
@@ -4946,10 +5013,10 @@
       <c r="G39" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="54">
         <v>265</v>
       </c>
-      <c r="I39" s="55">
+      <c r="I39" s="54">
         <v>278</v>
       </c>
       <c r="J39" s="18" t="s">
@@ -4971,10 +5038,10 @@
       <c r="G40" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="54">
         <v>255</v>
       </c>
-      <c r="I40" s="55">
+      <c r="I40" s="54">
         <v>268</v>
       </c>
       <c r="J40" s="18" t="s">
@@ -4996,10 +5063,10 @@
       <c r="G41" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="H41" s="55">
+      <c r="H41" s="54">
         <v>255</v>
       </c>
-      <c r="I41" s="55">
+      <c r="I41" s="54">
         <v>268</v>
       </c>
       <c r="J41" s="18" t="s">
@@ -5021,10 +5088,10 @@
       <c r="G42" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="54">
         <v>189</v>
       </c>
-      <c r="I42" s="55">
+      <c r="I42" s="54">
         <v>198</v>
       </c>
       <c r="J42" s="18" t="s">
@@ -5046,10 +5113,10 @@
       <c r="G43" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="H43" s="55">
+      <c r="H43" s="54">
         <v>189</v>
       </c>
-      <c r="I43" s="55">
+      <c r="I43" s="54">
         <v>199</v>
       </c>
       <c r="J43" s="18" t="s">
@@ -5071,10 +5138,10 @@
       <c r="G45" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="55">
+      <c r="H45" s="54">
         <v>365</v>
       </c>
-      <c r="I45" s="55"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="18" t="s">
         <v>205</v>
       </c>
@@ -5094,7 +5161,7 @@
       <c r="G46" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="H46" s="55">
+      <c r="H46" s="54">
         <v>365</v>
       </c>
       <c r="J46" s="18" t="s">
@@ -5116,7 +5183,7 @@
       <c r="G47" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="H47" s="55">
+      <c r="H47" s="54">
         <v>299</v>
       </c>
       <c r="J47" s="18" t="s">
@@ -5138,7 +5205,7 @@
       <c r="G48" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="H48" s="55">
+      <c r="H48" s="54">
         <v>299</v>
       </c>
       <c r="J48" s="18" t="s">
@@ -5160,7 +5227,7 @@
       <c r="G49" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="H49" s="55">
+      <c r="H49" s="54">
         <v>599</v>
       </c>
       <c r="J49" s="18" t="s">
@@ -5182,7 +5249,7 @@
       <c r="G50" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="H50" s="55">
+      <c r="H50" s="54">
         <v>299</v>
       </c>
       <c r="J50" s="18" t="s">

--- a/映虚284大促页面.xlsx
+++ b/映虚284大促页面.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="秒杀" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="219">
   <si>
     <t>秒杀开始时间</t>
     <rPh sb="0" eb="1">
@@ -996,6 +996,19 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>拼团人数</t>
+    <rPh sb="0" eb="1">
+      <t>pin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1004,7 +1017,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1151,6 +1164,11 @@
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1213,7 +1231,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1353,6 +1371,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1636,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2637,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2654,7 +2675,7 @@
     <col min="7" max="16384" width="10.5" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
@@ -2673,8 +2694,11 @@
       <c r="F1" s="33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="G1" s="56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>120</v>
       </c>
@@ -2693,8 +2717,11 @@
       <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="48" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="G2" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="48" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>120</v>
       </c>
@@ -2713,8 +2740,11 @@
       <c r="F3" s="22" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="48" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="G3" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="48" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -2722,7 +2752,7 @@
       <c r="E4" s="31"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -2730,8 +2760,8 @@
       <c r="E5" s="31"/>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
